--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B9B227-7798-7143-A8BA-6C6788F25513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46C766-4414-9145-9B5C-9A054F9117BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{F63D25C2-F685-6A41-A523-0D04C567B726}"/>
+    <workbookView xWindow="7680" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{8A9BF762-DDDE-5C47-9A2E-3F894FC92F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="NC2022_metrics" localSheetId="0">Sheet1!$A$1:$K$24</definedName>
+    <definedName name="NC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,10 +40,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B8956D55-C407-B94C-82B1-732DBB56313A}" name="NC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{B0826F0B-52F7-BA44-9996-EDB363CAF335}" name="NC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-metrics.csv" comma="1">
-      <textFields count="11">
+      <textFields count="12">
         <textField type="text"/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>METRIC</t>
   </si>
@@ -163,6 +164,9 @@
   </si>
   <si>
     <t>U_Sf</t>
+  </si>
+  <si>
+    <t>Δ</t>
   </si>
   <si>
     <t>Δ/SEM</t>
@@ -172,6 +176,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -197,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -205,77 +212,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,7 +240,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-metrics" connectionId="1" xr16:uid="{61106975-D16D-3248-A3DA-464D45AC50B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-metrics" connectionId="1" xr16:uid="{EE3466F2-530A-224E-8948-15857170FC5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,14 +539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC19395-6CEF-BE42-A0AB-84B29B87FDB5}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69970BC6-316F-8A47-9E43-85DF6EE39286}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,87 +554,93 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="4">
         <v>0.49433300000000002</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.49314400000000003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.48094100000000001</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>0.49085200000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0.47044399999999997</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>0.52287499999999998</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>0.50124299999999999</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.49325000000000002</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>7.3460000000000001E-3</v>
       </c>
       <c r="K2" s="4">
+        <v>1.083E-3</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.147427</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="4">
         <v>6.7542600000000004</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>6.6423750000000004</v>
       </c>
       <c r="D3" s="4">
@@ -706,199 +658,217 @@
       <c r="H3" s="4">
         <v>7.0194879999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>6.69259</v>
       </c>
       <c r="J3" s="4">
         <v>0.29117500000000002</v>
       </c>
       <c r="K3" s="4">
+        <v>6.1670000000000003E-2</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.21179700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <v>0.48244700000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.47445500000000002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.450154</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.47141300000000003</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.40962900000000002</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.56120999999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>0.50139199999999995</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.47804200000000002</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>2.0798000000000001E-2</v>
       </c>
       <c r="K4" s="4">
+        <v>4.4050000000000001E-3</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.21179899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>6.6666670000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>0.21081900000000001</v>
       </c>
       <c r="K5" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L5" s="4">
         <v>1.581134</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>7</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>8.8109999999999994E-3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>5.1710000000000002E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>4.0480000000000004E-3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>1.585E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>1.676E-3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>1.8270000000000001E-3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>3.8530000000000001E-3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>1.16E-3</v>
       </c>
       <c r="K7" s="4">
+        <v>-1.1230000000000001E-3</v>
+      </c>
+      <c r="L7" s="4">
         <v>-0.96810300000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="4">
         <v>1.0089999999999999E-3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3.4659999999999999E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2.0240000000000002E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.8299999999999998E-4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>1.451E-3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="K8" s="4">
+        <v>-4.4200000000000001E-4</v>
+      </c>
+      <c r="L8" s="4">
         <v>-0.94042599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="4">
         <v>0.18129799999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1.229868</v>
       </c>
       <c r="D9" s="4">
@@ -916,304 +886,331 @@
       <c r="H9" s="4">
         <v>0.161607</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>0.26114500000000002</v>
       </c>
       <c r="J9" s="4">
         <v>0.20347499999999999</v>
       </c>
       <c r="K9" s="4">
+        <v>-7.9847000000000001E-2</v>
+      </c>
+      <c r="L9" s="4">
         <v>-0.39241700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>1.1770000000000001E-3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3.3279999999999998E-3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>4.679E-3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>1.957E-3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>4.5570000000000003E-3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>5.2909999999999997E-3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3.4380000000000001E-3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>7.1400000000000001E-4</v>
       </c>
       <c r="K10" s="4">
+        <v>-2.261E-3</v>
+      </c>
+      <c r="L10" s="4">
         <v>-3.1666669999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="4">
         <v>6.2189999999999997E-3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.1833E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>1.1728000000000001E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>1.0291E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>3.1259000000000002E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>-1.546E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>8.4569999999999992E-3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>6.2490000000000002E-3</v>
       </c>
       <c r="K11" s="4">
+        <v>-2.238E-3</v>
+      </c>
+      <c r="L11" s="4">
         <v>-0.35813699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="4">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>8.4019999999999997E-3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>3.297E-3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>-4.4320000000000002E-3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>3.7309999999999999E-3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>2.4290000000000002E-3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>1.6930000000000001E-3</v>
       </c>
       <c r="K12" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="L12" s="4">
         <v>1.8311000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="4">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>1.8689000000000001E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>3.0786999999999998E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>1.9439000000000001E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>6.0815000000000001E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>-3.8335000000000001E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>-1.4899999999999999E-4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>1.5207999999999999E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>1.3485E-2</v>
       </c>
       <c r="K13" s="4">
+        <v>-3.3219999999999999E-3</v>
+      </c>
+      <c r="L13" s="4">
         <v>-0.24634800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="4">
         <v>7.1349999999999998E-3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>9.0500000000000008E-3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>8.3809999999999996E-3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>8.8140000000000007E-3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>4.4010000000000004E-3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>6.0390000000000001E-3</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>7.3179999999999999E-3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="K14" s="4">
+        <v>-1.83E-4</v>
+      </c>
+      <c r="L14" s="4">
         <v>-0.24663099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>1.3359999999999999E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>1.84E-4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>4.3800000000000002E-4</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="K15" s="4">
+        <v>-8.2000000000000001E-5</v>
+      </c>
+      <c r="L15" s="4">
         <v>-0.43386200000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <v>6.7790000000000003E-3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>8.9949999999999995E-3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>8.1440000000000002E-3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>8.3320000000000009E-3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>5.8859999999999997E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>4.2170000000000003E-3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>5.7070000000000003E-3</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>6.8799999999999998E-3</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>7.67E-4</v>
       </c>
       <c r="K16" s="4">
+        <v>-1.01E-4</v>
+      </c>
+      <c r="L16" s="4">
         <v>-0.13168199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <v>-5.574E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>-3.823E-3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>-1.9359000000000001E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>-8.9119999999999998E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>-3.125E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>2.2841E-2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>-6.5319999999999996E-3</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>7.5560000000000002E-3</v>
       </c>
       <c r="K17" s="4">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.12678700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="4">
         <v>3.097378</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>3.7258849999999999</v>
       </c>
       <c r="D18" s="4">
@@ -1231,24 +1228,27 @@
       <c r="H18" s="4">
         <v>1.119891</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>2.719929</v>
       </c>
       <c r="J18" s="4">
         <v>0.35884300000000002</v>
       </c>
       <c r="K18" s="4">
+        <v>0.37744899999999998</v>
+      </c>
+      <c r="L18" s="4">
         <v>1.05185</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="4">
         <v>2.6264539999999998</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>2.4298670000000002</v>
       </c>
       <c r="D19" s="4">
@@ -1266,24 +1266,27 @@
       <c r="H19" s="4">
         <v>2.6311810000000002</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>2.6052749999999998</v>
       </c>
       <c r="J19" s="4">
         <v>9.0329000000000007E-2</v>
       </c>
       <c r="K19" s="4">
+        <v>2.1179E-2</v>
+      </c>
+      <c r="L19" s="4">
         <v>0.23446500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="4">
         <v>3.1682139999999999</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>2.9546109999999999</v>
       </c>
       <c r="D20" s="4">
@@ -1301,17 +1304,20 @@
       <c r="H20" s="4">
         <v>3.1889110000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>3.2345609999999998</v>
       </c>
       <c r="J20" s="4">
         <v>0.14156099999999999</v>
       </c>
       <c r="K20" s="4">
+        <v>-6.6347000000000003E-2</v>
+      </c>
+      <c r="L20" s="4">
         <v>-0.46868100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1343,10 +1349,13 @@
         <v>7.0320000000000001E-3</v>
       </c>
       <c r="K21">
+        <v>-1.6670000000000001E-3</v>
+      </c>
+      <c r="L21">
         <v>-0.23705899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1378,10 +1387,13 @@
         <v>2.1006E-2</v>
       </c>
       <c r="K22">
+        <v>-3.1510000000000002E-3</v>
+      </c>
+      <c r="L22">
         <v>-0.150005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1413,10 +1425,13 @@
         <v>7.0320000000000001E-3</v>
       </c>
       <c r="K23">
+        <v>-1.6670000000000001E-3</v>
+      </c>
+      <c r="L23">
         <v>-0.23705899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1448,6 +1463,9 @@
         <v>2.1037E-2</v>
       </c>
       <c r="K24">
+        <v>-3.8349999999999999E-3</v>
+      </c>
+      <c r="L24">
         <v>-0.18229799999999999</v>
       </c>
     </row>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46C766-4414-9145-9B5C-9A054F9117BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABB334-55B1-0346-9658-513627E34E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7680" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{8A9BF762-DDDE-5C47-9A2E-3F894FC92F4C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="NC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{B0826F0B-52F7-BA44-9996-EDB363CAF335}" name="NC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -216,12 +216,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,13 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69970BC6-316F-8A47-9E43-85DF6EE39286}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="I26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +636,7 @@
         <v>0.147427</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -671,7 +674,7 @@
         <v>0.21179700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,6 +1471,12 @@
       <c r="L24">
         <v>-0.18229799999999999</v>
       </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABB334-55B1-0346-9658-513627E34E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D5425-2443-EC47-B6B3-84EEB6817C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{8A9BF762-DDDE-5C47-9A2E-3F894FC92F4C}"/>
+    <workbookView xWindow="23920" yWindow="500" windowWidth="20400" windowHeight="17440" xr2:uid="{8A9BF762-DDDE-5C47-9A2E-3F894FC92F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,11 +212,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +245,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69970BC6-316F-8A47-9E43-85DF6EE39286}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="I26:L26"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,40 +701,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>0.48244700000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>0.47445500000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>0.450154</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>0.47141300000000003</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>0.40962900000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>0.56120999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>0.50139199999999995</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>0.47804200000000002</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <v>2.0798000000000001E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <v>4.4050000000000001E-3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="7">
         <v>0.21179899999999999</v>
       </c>
     </row>
@@ -866,347 +892,347 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>0.18129799999999999</v>
+        <v>1.1770000000000001E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>1.229868</v>
+        <v>3.3279999999999998E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>-2.5586999999999999E-2</v>
+        <v>4.679E-3</v>
       </c>
       <c r="E9" s="4">
-        <v>0.29150900000000002</v>
+        <v>1.957E-3</v>
       </c>
       <c r="F9" s="4">
-        <v>-0.152085</v>
+        <v>4.5570000000000003E-3</v>
       </c>
       <c r="G9" s="4">
-        <v>6.1559999999999997E-2</v>
+        <v>5.2909999999999997E-3</v>
       </c>
       <c r="H9" s="4">
-        <v>0.161607</v>
+        <v>8.1499999999999997E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>0.26114500000000002</v>
+        <v>3.4380000000000001E-3</v>
       </c>
       <c r="J9" s="4">
-        <v>0.20347499999999999</v>
+        <v>7.1400000000000001E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>-7.9847000000000001E-2</v>
+        <v>-2.261E-3</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.39241700000000002</v>
+        <v>-3.1666669999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>1.1770000000000001E-3</v>
+        <v>6.2189999999999997E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>3.3279999999999998E-3</v>
+        <v>1.1833E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>4.679E-3</v>
+        <v>1.1728000000000001E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>1.957E-3</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>4.5570000000000003E-3</v>
+        <v>3.1259000000000002E-2</v>
       </c>
       <c r="G10" s="4">
-        <v>5.2909999999999997E-3</v>
+        <v>-1.546E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>8.1499999999999997E-4</v>
+        <v>1.0939999999999999E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>3.4380000000000001E-3</v>
+        <v>8.4569999999999992E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>7.1400000000000001E-4</v>
+        <v>6.2490000000000002E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>-2.261E-3</v>
+        <v>-2.238E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>-3.1666669999999999</v>
+        <v>-0.35813699999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>6.2189999999999997E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>1.1833E-2</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>1.1728000000000001E-2</v>
+        <v>1.7539999999999999E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>1.0291E-2</v>
+        <v>3.297E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>3.1259000000000002E-2</v>
+        <v>-4.4320000000000002E-3</v>
       </c>
       <c r="G11" s="4">
-        <v>-1.546E-2</v>
+        <v>3.7309999999999999E-3</v>
       </c>
       <c r="H11" s="4">
-        <v>1.0939999999999999E-3</v>
+        <v>1.8220000000000001E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>8.4569999999999992E-3</v>
+        <v>2.4290000000000002E-3</v>
       </c>
       <c r="J11" s="4">
-        <v>6.2490000000000002E-3</v>
+        <v>1.6930000000000001E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>-2.238E-3</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.35813699999999998</v>
+        <v>1.8311000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
-        <v>2.4599999999999999E-3</v>
+        <v>1.1886000000000001E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>8.4019999999999997E-3</v>
+        <v>1.8689000000000001E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>1.7539999999999999E-3</v>
+        <v>3.0786999999999998E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>3.297E-3</v>
+        <v>1.9439000000000001E-2</v>
       </c>
       <c r="F12" s="4">
-        <v>-4.4320000000000002E-3</v>
+        <v>6.0815000000000001E-2</v>
       </c>
       <c r="G12" s="4">
-        <v>3.7309999999999999E-3</v>
+        <v>-3.8335000000000001E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>1.8220000000000001E-3</v>
+        <v>-1.4899999999999999E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>2.4290000000000002E-3</v>
+        <v>1.5207999999999999E-2</v>
       </c>
       <c r="J12" s="4">
-        <v>1.6930000000000001E-3</v>
+        <v>1.3485E-2</v>
       </c>
       <c r="K12" s="4">
-        <v>3.1000000000000001E-5</v>
+        <v>-3.3219999999999999E-3</v>
       </c>
       <c r="L12" s="4">
-        <v>1.8311000000000001E-2</v>
+        <v>-0.24634800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
-        <v>1.1886000000000001E-2</v>
+        <v>7.1349999999999998E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>1.8689000000000001E-2</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>3.0786999999999998E-2</v>
+        <v>8.3809999999999996E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>1.9439000000000001E-2</v>
+        <v>8.8140000000000007E-3</v>
       </c>
       <c r="F13" s="4">
-        <v>6.0815000000000001E-2</v>
+        <v>7.2230000000000003E-3</v>
       </c>
       <c r="G13" s="4">
-        <v>-3.8335000000000001E-2</v>
+        <v>4.4010000000000004E-3</v>
       </c>
       <c r="H13" s="4">
-        <v>-1.4899999999999999E-4</v>
+        <v>6.0390000000000001E-3</v>
       </c>
       <c r="I13" s="4">
-        <v>1.5207999999999999E-2</v>
+        <v>7.3179999999999999E-3</v>
       </c>
       <c r="J13" s="4">
-        <v>1.3485E-2</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="K13" s="4">
-        <v>-3.3219999999999999E-3</v>
+        <v>-1.83E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>-0.24634800000000001</v>
+        <v>-0.24663099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>7.1349999999999998E-3</v>
+        <v>6.7790000000000003E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>9.0500000000000008E-3</v>
+        <v>8.9949999999999995E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>8.3809999999999996E-3</v>
+        <v>8.1440000000000002E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>8.8140000000000007E-3</v>
+        <v>8.3320000000000009E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>7.2230000000000003E-3</v>
+        <v>5.8859999999999997E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>4.4010000000000004E-3</v>
+        <v>4.2170000000000003E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>6.0390000000000001E-3</v>
+        <v>5.7070000000000003E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>7.3179999999999999E-3</v>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>7.4200000000000004E-4</v>
+        <v>7.67E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>-1.83E-4</v>
+        <v>-1.01E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.24663099999999999</v>
+        <v>-0.13168199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9">
+        <v>-5.574E-3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-3.823E-3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-1.9359000000000001E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-8.9119999999999998E-3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.2841E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.3110000000000001E-3</v>
+      </c>
+      <c r="I15" s="9">
+        <v>-6.5319999999999996E-3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>7.5560000000000002E-3</v>
+      </c>
+      <c r="K15" s="9">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.12678700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="7">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="7">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="7">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="7">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="7">
         <v>1.3359999999999999E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="7">
         <v>1.84E-4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="7">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="7">
         <v>4.3800000000000002E-4</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="7">
         <v>1.8900000000000001E-4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="7">
         <v>-8.2000000000000001E-5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="7">
         <v>-0.43386200000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4">
-        <v>6.7790000000000003E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8.9949999999999995E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.1440000000000002E-3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8.3320000000000009E-3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5.8859999999999997E-3</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4.2170000000000003E-3</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5.7070000000000003E-3</v>
-      </c>
-      <c r="I16" s="4">
-        <v>6.8799999999999998E-3</v>
-      </c>
-      <c r="J16" s="4">
-        <v>7.67E-4</v>
-      </c>
-      <c r="K16" s="4">
-        <v>-1.01E-4</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-0.13168199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-5.574E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-3.823E-3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>-1.9359000000000001E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>-8.9119999999999998E-3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-3.125E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2.2841E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.3110000000000001E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>-6.5319999999999996E-3</v>
-      </c>
-      <c r="J17" s="4">
-        <v>7.5560000000000002E-3</v>
-      </c>
-      <c r="K17" s="4">
-        <v>9.5799999999999998E-4</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.12678700000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.18129799999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.229868</v>
+      </c>
+      <c r="D17" s="11">
+        <v>-2.5586999999999999E-2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.29150900000000002</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-0.152085</v>
+      </c>
+      <c r="G17" s="11">
+        <v>6.1559999999999997E-2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.161607</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.26114500000000002</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.20347499999999999</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-7.9847000000000001E-2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>-0.39241700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1243,8 +1269,12 @@
       <c r="L18" s="4">
         <v>1.05185</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f>K18/2</f>
+        <v>0.18872449999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1281,8 +1311,12 @@
       <c r="L19" s="4">
         <v>0.23446500000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" ref="N19:N20" si="0">K19/2</f>
+        <v>1.05895E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1319,8 +1353,12 @@
       <c r="L20" s="4">
         <v>-0.46868100000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>-3.3173500000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1396,7 @@
         <v>-0.23705899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1434,7 @@
         <v>-0.150005</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1434,7 +1472,7 @@
         <v>-0.23705899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1472,7 +1510,7 @@
         <v>-0.18229799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D5425-2443-EC47-B6B3-84EEB6817C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEF921-348D-7048-B971-973BDEBE64F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23920" yWindow="500" windowWidth="20400" windowHeight="17440" xr2:uid="{8A9BF762-DDDE-5C47-9A2E-3F894FC92F4C}"/>
   </bookViews>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -247,8 +247,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -575,7 +573,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,40 +1117,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>-5.574E-3</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>-3.823E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>-1.9359000000000001E-2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>-8.9119999999999998E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>-3.125E-2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>2.2841E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>-6.5319999999999996E-3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="4">
         <v>7.5560000000000002E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="4">
         <v>9.5799999999999998E-4</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="4">
         <v>0.12678700000000001</v>
       </c>
     </row>
@@ -1195,40 +1193,40 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>0.18129799999999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>1.229868</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>-2.5586999999999999E-2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>0.29150900000000002</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>-0.152085</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>6.1559999999999997E-2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>0.161607</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.26114500000000002</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>0.20347499999999999</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>-7.9847000000000001E-2</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>-0.39241700000000002</v>
       </c>
     </row>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E5625-B1AC-FD4B-BB17-17134FBCB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C9212-8003-3642-B914-8E540225CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
+    <workbookView xWindow="20340" yWindow="7040" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="NC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{D56677B5-885B-744B-8DBE-5E7F92AD81C4}" name="NC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>METRIC</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Δ/SEM</t>
+  </si>
+  <si>
+    <t>Average Δ</t>
   </si>
 </sst>
 </file>
@@ -584,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E0528-C3E0-554D-BDD0-56EBA420D518}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="K1:L1"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +604,7 @@
     <col min="11" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -640,7 +643,7 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.147427</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -717,7 +720,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0.21179700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -793,7 +796,7 @@
         <v>1.581134</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -831,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -868,8 +871,15 @@
       <c r="L7" s="3">
         <v>-0.35813699999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="3">
+        <f>AVERAGE(K7:K12,K14,K17)</f>
+        <v>-1.0724999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -908,7 +918,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,7 +956,7 @@
         <v>-0.96810300000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -984,7 +994,7 @@
         <v>-0.94042599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>-3.1666669999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1071,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1109,7 @@
         <v>-0.39241700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>-0.24663099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>-0.43386200000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C9212-8003-3642-B914-8E540225CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61518BF2-2C96-3048-8F3E-1CDBE9A0457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20340" yWindow="7040" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>METRIC</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Average Δ</t>
+  </si>
+  <si>
+    <t>Average for bias measures</t>
+  </si>
+  <si>
+    <t>except declination</t>
   </si>
 </sst>
 </file>
@@ -258,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +275,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E0528-C3E0-554D-BDD0-56EBA420D518}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,6 +1813,28 @@
         <v>-0.18229799999999999</v>
       </c>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="3">
+        <f>AVERAGE(J7:J12,J14,J17)</f>
+        <v>4.008625E-3</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <v>-1.0724999999999997E-3</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.72265175000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61518BF2-2C96-3048-8F3E-1CDBE9A0457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0193F1D-49B9-8F44-8278-D7AA0E42CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="7040" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
+    <workbookView xWindow="10720" yWindow="6280" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>METRIC</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Δ/SEM</t>
-  </si>
-  <si>
-    <t>Average Δ</t>
   </si>
   <si>
     <t>Average for bias measures</t>
@@ -264,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,6 +275,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +602,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36:L37"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,13 +880,7 @@
       <c r="L7" s="3">
         <v>-0.35813699999999998</v>
       </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="3">
-        <f>AVERAGE(K7:K12,K14,K17)</f>
-        <v>-1.0724999999999997E-3</v>
-      </c>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1004,79 +998,80 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.1770000000000001E-3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3.3279999999999998E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4.679E-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.957E-3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.5570000000000003E-3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5.2909999999999997E-3</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8.1499999999999997E-4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.4380000000000001E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7.1400000000000001E-4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-2.261E-3</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-3.1666669999999999</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8.4019999999999997E-3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.7539999999999999E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3.297E-3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>-4.4320000000000002E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3.7309999999999999E-3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1.8220000000000001E-3</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2.4290000000000002E-3</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1.6930000000000001E-3</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1.8311000000000001E-2</v>
+      </c>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
-        <v>2.4599999999999999E-3</v>
+        <v>1.1770000000000001E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>8.4019999999999997E-3</v>
+        <v>3.3279999999999998E-3</v>
       </c>
       <c r="D12" s="5">
-        <v>1.7539999999999999E-3</v>
+        <v>4.679E-3</v>
       </c>
       <c r="E12" s="5">
-        <v>3.297E-3</v>
+        <v>1.957E-3</v>
       </c>
       <c r="F12" s="5">
-        <v>-4.4320000000000002E-3</v>
+        <v>4.5570000000000003E-3</v>
       </c>
       <c r="G12" s="5">
-        <v>3.7309999999999999E-3</v>
+        <v>5.2909999999999997E-3</v>
       </c>
       <c r="H12" s="5">
-        <v>1.8220000000000001E-3</v>
+        <v>8.1499999999999997E-4</v>
       </c>
       <c r="I12" s="5">
-        <v>2.4290000000000002E-3</v>
+        <v>3.4380000000000001E-3</v>
       </c>
       <c r="J12" s="5">
-        <v>1.6930000000000001E-3</v>
+        <v>7.1400000000000001E-4</v>
       </c>
       <c r="K12" s="5">
-        <v>3.1000000000000001E-5</v>
+        <v>-2.261E-3</v>
       </c>
       <c r="L12" s="5">
-        <v>1.8311000000000001E-2</v>
+        <v>-3.1666669999999999</v>
       </c>
       <c r="M12" s="6"/>
     </row>
@@ -1815,24 +1810,24 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I36" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36" s="3">
         <f>AVERAGE(J7:J12,J14,J17)</f>
         <v>4.008625E-3</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <f>AVERAGE(K7:K12,K14,K17)</f>
         <v>-1.0724999999999997E-3</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.72265175000000004</v>
+        <f>AVERAGE(L7:L12,L14,L17)</f>
+        <v>-0.72265174999999993</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I37" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/NC/NC2022-metrics.xlsx
+++ b/analysis/NC/NC2022-metrics.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0193F1D-49B9-8F44-8278-D7AA0E42CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA41CBE-4AF4-6F4C-AA57-6B599C2C56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="6280" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
+    <workbookView xWindow="12340" yWindow="5180" windowWidth="27260" windowHeight="16940" xr2:uid="{CA548A59-6448-2647-90EB-1CE001C8D079}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Vf" sheetId="2" r:id="rId2"/>
+    <sheet name="Sf" sheetId="3" r:id="rId3"/>
+    <sheet name="Decl" sheetId="4" r:id="rId4"/>
+    <sheet name="Responsiveness" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="NC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
+    <definedName name="NC2022_metrics" localSheetId="0">All!$A$1:$L$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>METRIC</t>
   </si>
@@ -206,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +226,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -257,11 +276,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,9 +429,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +765,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7:O7"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,43 +1161,42 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="3">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="3">
         <v>8.4019999999999997E-3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="3">
         <v>3.297E-3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="3">
         <v>-4.4320000000000002E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="3">
         <v>3.7309999999999999E-3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="3">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="3">
         <v>2.4290000000000002E-3</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="3">
         <v>1.6930000000000001E-3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="3">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="3">
         <v>1.8311000000000001E-2</v>
       </c>
-      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1832,5 +1994,425 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246B81BD-9576-6A4B-9B7D-347A88A9A240}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.49433300000000002</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.49314400000000003</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.48094100000000001</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.49085200000000001</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.47044399999999997</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.52287499999999998</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.50124299999999999</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.49325000000000002</v>
+      </c>
+      <c r="J2" s="15">
+        <v>7.3460000000000001E-3</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.083E-3</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0.147427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662BAFD6-5846-E24B-9398-ED5206259979}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.48244700000000001</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.47445500000000002</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.450154</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.47141300000000003</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.40962900000000002</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.56120999999999999</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.50139199999999995</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.47804200000000002</v>
+      </c>
+      <c r="J2" s="15">
+        <v>2.0798000000000001E-2</v>
+      </c>
+      <c r="K2" s="15">
+        <v>4.4050000000000001E-3</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0.21179899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D134AD-2605-844C-8A7D-54B46ABB5DDF}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.18129799999999999</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.229868</v>
+      </c>
+      <c r="D2" s="15">
+        <v>-2.5586999999999999E-2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.29150900000000002</v>
+      </c>
+      <c r="F2" s="15">
+        <v>-0.152085</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6.1559999999999997E-2</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.161607</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.26114500000000002</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.20347499999999999</v>
+      </c>
+      <c r="K2" s="15">
+        <v>-7.9847000000000001E-2</v>
+      </c>
+      <c r="L2" s="16">
+        <v>-0.39241700000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83453B9-E1F2-AE42-AF51-EEF8F5C3046A}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="18">
+        <v>3.0973999999999999</v>
+      </c>
+      <c r="C2" s="18">
+        <v>3.7259000000000002</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2.6154000000000002</v>
+      </c>
+      <c r="E2" s="18">
+        <v>3.125</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3.0575999999999999</v>
+      </c>
+      <c r="G2" s="18">
+        <v>2.6758000000000002</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2.7199</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="L2" s="19">
+        <v>1.0519000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2.6265000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2.4298999999999999</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2.2683</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2.6499000000000001</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2.8363999999999998</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2.6312000000000002</v>
+      </c>
+      <c r="I3" s="21">
+        <v>2.6053000000000002</v>
+      </c>
+      <c r="J3" s="21">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="K3" s="21">
+        <v>2.12E-2</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>